--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/12/parameters.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/12/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1926.164250480294</v>
+        <v>1965.904063069385</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007452030662944713</v>
+        <v>0.0007591547189288901</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05190069286820085</v>
+        <v>0.1943410037486101</v>
       </c>
     </row>
   </sheetData>
